--- a/django_project/dictionary - Copy.xlsx
+++ b/django_project/dictionary - Copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="202">
   <si>
     <t>Bridge Damage</t>
   </si>
@@ -585,6 +585,51 @@
   </si>
   <si>
     <t>covid-19</t>
+  </si>
+  <si>
+    <t>covid 19</t>
+  </si>
+  <si>
+    <t>coronavirus</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pakistan </t>
+  </si>
+  <si>
+    <t>kpk</t>
+  </si>
+  <si>
+    <t>pandemic</t>
+  </si>
+  <si>
+    <t>lock down</t>
+  </si>
+  <si>
+    <t>put off</t>
+  </si>
+  <si>
+    <t>look down on</t>
+  </si>
+  <si>
+    <t>Lockdown</t>
+  </si>
+  <si>
+    <t>Social Distancing</t>
+  </si>
+  <si>
+    <t>Self-Isolation</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Quarantine</t>
   </si>
 </sst>
 </file>
@@ -914,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A192"/>
+  <dimension ref="A1:A208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,6 +1930,86 @@
         <v>186</v>
       </c>
     </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
